--- a/target/test-classes/testdata/Book1.xlsx
+++ b/target/test-classes/testdata/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>john1234</t>
+  </si>
+  <si>
+    <t>burhan@gmail.com</t>
+  </si>
+  <si>
+    <t>bur23456</t>
   </si>
 </sst>
 </file>
@@ -354,15 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -379,6 +386,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
